--- a/tables/tech_totals.xlsx
+++ b/tables/tech_totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>5year_compound_annual_growth_16</t>
   </si>
@@ -31,12 +31,12 @@
     <t>Afforestation/reforestation</t>
   </si>
   <si>
+    <t>BECCS</t>
+  </si>
+  <si>
     <t>Synonyms</t>
   </si>
   <si>
-    <t>BECCS</t>
-  </si>
-  <si>
     <t>Ocean fertilisation</t>
   </si>
   <si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Ocean Alkalinisation</t>
-  </si>
-  <si>
-    <t>Ethics &amp; Morals</t>
   </si>
   <si>
     <t>Blue Carbon</t>
@@ -413,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.64385000375561</v>
+        <v>14.56594278661894</v>
       </c>
       <c r="C2">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -449,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.563955259127317</v>
+        <v>3.258826616987576</v>
       </c>
       <c r="C3">
         <v>487</v>
@@ -460,13 +457,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>21.35097797182097</v>
+        <v>7.394092378577932</v>
       </c>
       <c r="C4">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -474,13 +471,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>9.856054330611785</v>
+        <v>21.35097797182097</v>
       </c>
       <c r="C5">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -508,7 +505,7 @@
         <v>11.5506700140541</v>
       </c>
       <c r="C7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -519,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>37.97296614612149</v>
+        <v>33.03249971309859</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -555,30 +552,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>8.447177119769854</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>8.447177119769854</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tech_totals.xlsx
+++ b/tables/tech_totals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>5year_compound_annual_growth_16</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Ocean Alkalinisation</t>
-  </si>
-  <si>
-    <t>Blue Carbon</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,7 +446,7 @@
         <v>3.258826616987576</v>
       </c>
       <c r="C3">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -460,10 +457,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7.394092378577932</v>
+        <v>6.643011016843192</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -499,7 +496,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>11.5506700140541</v>
@@ -527,7 +524,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>14.86983549970351</v>
@@ -541,27 +538,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>8.447177119769854</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tech_totals.xlsx
+++ b/tables/tech_totals.xlsx
@@ -34,7 +34,7 @@
     <t>BECCS</t>
   </si>
   <si>
-    <t>Synonyms</t>
+    <t>NETs - General</t>
   </si>
   <si>
     <t>Ocean fertilisation</t>
@@ -496,7 +496,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>11.5506700140541</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>14.86983549970351</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>20</v>

--- a/tables/tech_totals.xlsx
+++ b/tables/tech_totals.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.56594278661894</v>
+        <v>15.17054599148329</v>
       </c>
       <c r="C2">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.258826616987576</v>
+        <v>3.933463380769542</v>
       </c>
       <c r="C3">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -457,10 +457,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6.643011016843192</v>
+        <v>8.924936491294378</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -471,10 +471,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>21.35097797182097</v>
+        <v>21.97554094669347</v>
       </c>
       <c r="C5">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>-2.328131613882611</v>
       </c>
       <c r="C6">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11.5506700140541</v>
+        <v>13.33084422054029</v>
       </c>
       <c r="C7">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -510,13 +510,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>33.03249971309859</v>
+        <v>37.0406309505932</v>
       </c>
       <c r="C8">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -530,7 +530,7 @@
         <v>14.86983549970351</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>

--- a/tables/tech_totals.xlsx
+++ b/tables/tech_totals.xlsx
@@ -40,7 +40,7 @@
     <t>Ocean fertilisation</t>
   </si>
   <si>
-    <t>Direct Air Capture</t>
+    <t>DACCS</t>
   </si>
   <si>
     <t>Biochar</t>

--- a/tables/tech_totals.xlsx
+++ b/tables/tech_totals.xlsx
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.17054599148329</v>
+        <v>14.57377528431891</v>
       </c>
       <c r="C2">
         <v>562</v>
@@ -471,10 +471,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>21.97554094669347</v>
+        <v>21.52039563333235</v>
       </c>
       <c r="C5">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
